--- a/Dataset Excel/Communique 3.xlsx
+++ b/Dataset Excel/Communique 3.xlsx
@@ -2,8 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B792BF-3C45-463E-96C2-FF44A0BCAFB1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ElhadjMalangDIEDHIOU\Desktop\Workspace\data.covid19sn.com\Dataset Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBB7ED3-C2D3-4426-950C-18D5F00182FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8D63AA42-D37C-4EEA-9A52-1BB2D5E05BF3}"/>
   </bookViews>
@@ -167,7 +172,7 @@
     <t>Sous Traitement</t>
   </si>
   <si>
-    <t>CMIF</t>
+    <t>CTMIT Fann</t>
   </si>
 </sst>
 </file>
@@ -614,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1253,7 +1258,6 @@
     <dataValidation operator="greaterThan" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{B6A4068D-F80B-45C9-9915-E17AEAB0B9E2}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
@@ -1401,4 +1405,193 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010038F85C4C18602F4B945AA8D4F86956EE" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5510518b82f36aedba711892c1b561f3">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="071c009a-ce67-49e4-abae-6a46c995900d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="86b4007d165b35a68039d453d7963aea" ns2:_="">
+    <xsd:import namespace="071c009a-ce67-49e4-abae-6a46c995900d"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="071c009a-ce67-49e4-abae-6a46c995900d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8DBEC9-7E2A-47AE-BECC-AB018B3F2F12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="071c009a-ce67-49e4-abae-6a46c995900d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3D4F511F-51B7-4404-A4D7-CC7AF8D28488}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74878DCC-E168-4A7B-B1D3-899BDDBBFD32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="071c009a-ce67-49e4-abae-6a46c995900d"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>